--- a/sya_logistica_requerimientos.xlsx
+++ b/sya_logistica_requerimientos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,6 +589,117 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025/05/06</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JUAN PEREZ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>OT90</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LAP</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ROTOMARTILLO DE 6.73 KG</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025/05/06</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>JUAN PEREZ</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>OT90</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LAP</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>AMOLADORA DE 9"</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025/05/06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>JUAN PEREZ</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>OT90</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LAP</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>PINTURA DE TRAFICO AMARILLO ANYPSA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>GLN</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
